--- a/Code/luval.bpddg.app/Resources/GenerationTemplate.xlsx
+++ b/Code/luval.bpddg.app/Resources/GenerationTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\bp-dummy-data-generation\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\bp-dummy-data-generation\Code\luval.bpddg.app\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C616D2B7-C84B-4BA8-91B1-DDDC24DC34D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6D398-F558-4EF3-B7D3-A6378E913A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7546DFF2-6460-4455-8360-F9E50A617FC3}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +585,8 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>43466</v>
+        <f ca="1">TODAY()-90</f>
+        <v>43797</v>
       </c>
       <c r="G2">
         <f>6*60</f>
@@ -635,14 +636,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>43466</v>
+        <f t="shared" ref="F3:F16" ca="1" si="0">TODAY()-90</f>
+        <v>43797</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">6*60</f>
+        <f t="shared" ref="G3:G16" si="1">6*60</f>
         <v>360</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="1">19*60</f>
+        <f t="shared" ref="H3:H16" si="2">19*60</f>
         <v>1140</v>
       </c>
       <c r="I3">
@@ -664,7 +666,7 @@
         <v>0.05</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O16" si="2">SUM(L3:N3)</f>
+        <f t="shared" ref="O3:O16" si="3">SUM(L3:N3)</f>
         <v>1</v>
       </c>
     </row>
@@ -685,14 +687,15 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I4">
@@ -714,7 +717,7 @@
         <v>0.05</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -735,14 +738,15 @@
         <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I5">
@@ -764,7 +768,7 @@
         <v>0.05</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -785,14 +789,15 @@
         <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I6">
@@ -814,7 +819,7 @@
         <v>0.05</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -835,14 +840,15 @@
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I7">
@@ -864,7 +870,7 @@
         <v>0.05</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -885,14 +891,15 @@
         <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I8">
@@ -914,7 +921,7 @@
         <v>0.05</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -935,14 +942,15 @@
         <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I9">
@@ -964,7 +972,7 @@
         <v>0.05</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -985,14 +993,15 @@
         <v>18</v>
       </c>
       <c r="F10" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I10">
@@ -1014,7 +1023,7 @@
         <v>0.05</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1035,14 +1044,15 @@
         <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I11">
@@ -1064,7 +1074,7 @@
         <v>0.05</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1085,14 +1095,15 @@
         <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I12">
@@ -1114,7 +1125,7 @@
         <v>0.05</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1135,14 +1146,15 @@
         <v>22</v>
       </c>
       <c r="F13" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I13">
@@ -1164,7 +1176,7 @@
         <v>0.05</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1185,14 +1197,15 @@
         <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I14">
@@ -1214,7 +1227,7 @@
         <v>0.05</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1235,14 +1248,15 @@
         <v>28</v>
       </c>
       <c r="F15" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I15">
@@ -1264,7 +1278,7 @@
         <v>0.05</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1285,14 +1299,15 @@
         <v>29</v>
       </c>
       <c r="F16" s="1">
-        <v>43466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43797</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="I16">
@@ -1314,7 +1329,7 @@
         <v>0.05</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
